--- a/20220207/김다운_2022_02_07_AWSNACL_Ver1.xlsx
+++ b/20220207/김다운_2022_02_07_AWSNACL_Ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Multicampus\Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FC4228-3C42-4CCD-9ECC-2D3852580466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E15779-260D-485B-B41B-3FA5C411857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="450" windowWidth="15345" windowHeight="11385" xr2:uid="{0D4BF168-B956-47CF-B3F9-890E1E15A155}"/>
   </bookViews>
@@ -606,13 +606,13 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
@@ -807,10 +807,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="5"/>
@@ -826,10 +826,10 @@
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>80</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>80</v>
       </c>
       <c r="E15" t="s">
@@ -839,10 +839,10 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>443</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>443</v>
       </c>
       <c r="E16" t="s">
@@ -856,10 +856,10 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>5000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>5000</v>
       </c>
       <c r="E17" t="s">
@@ -873,10 +873,10 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>3306</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>3306</v>
       </c>
       <c r="E18" t="s">
@@ -914,10 +914,10 @@
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>80</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>80</v>
       </c>
       <c r="D24" t="s">
@@ -926,10 +926,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>443</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>443</v>
       </c>
       <c r="D25" t="s">
@@ -940,10 +940,10 @@
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>5000</v>
       </c>
       <c r="D26" t="s">
@@ -954,10 +954,10 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>3306</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>3306</v>
       </c>
       <c r="D27" t="s">
